--- a/Discharge/Discharge_2019/Discharge_Aug02.xlsx
+++ b/Discharge/Discharge_2019/Discharge_Aug02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3D3A4-CABB-684A-A98B-6897DA218E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FC792E-EE6F-374E-BF98-5431B5DEC81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="18460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>Stat 4</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1118,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1615,6 +1624,251 @@
       <c r="A30">
         <f>A28-A18</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.5</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>C18*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>A34</f>
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <f>SUM(E34:E44)</f>
+        <v>6.3272924000000019E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B35">
+        <v>0.13155999999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C44" si="5">C19*2.54</f>
+        <v>5.0800000000000005E-2</v>
+      </c>
+      <c r="D35">
+        <f>(A35+(A36-A35)/2)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E35">
+        <f>(D35-D34)*(B35)*C35</f>
+        <v>5.0124359999999962E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.6</v>
+      </c>
+      <c r="B36">
+        <v>0.18304000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D44" si="6">(A36+(A37-A36)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E44" si="7">(D36-D35)*(B36)*C36</f>
+        <v>9.2984320000000101E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.65</v>
+      </c>
+      <c r="B37">
+        <v>0.12584000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>9.5890080000000098E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.7</v>
+      </c>
+      <c r="B38">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.254</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>7.264399999999991E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.75</v>
+      </c>
+      <c r="B39">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>1.3075920000000013E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>9.8795839999999877E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.85</v>
+      </c>
+      <c r="B41">
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>6.1020960000000054E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.9</v>
+      </c>
+      <c r="B42">
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>3.0510480000000027E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.95</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2118,21 +2372,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -2316,10 +2555,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE66F618-1D73-42AD-8D92-FF1C73555D14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA482AC-C172-4287-B204-154CF3E12D87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2341,19 +2605,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA482AC-C172-4287-B204-154CF3E12D87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE66F618-1D73-42AD-8D92-FF1C73555D14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>